--- a/medicine/Mort/Cimetière_de_Beynost/Cimetière_de_Beynost.xlsx
+++ b/medicine/Mort/Cimetière_de_Beynost/Cimetière_de_Beynost.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Beynost</t>
+          <t>Cimetière_de_Beynost</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière de Beynost est un cimetière à Beynost dans l'Ain en France. Il se trouve sur les hauteurs de la (première) église Saint-Julien de Beynost.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Beynost</t>
+          <t>Cimetière_de_Beynost</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il y a deux croix dans le cimetière de Beynost :
-une croix en pierre, monolithique, datant de 1885[1] ;
+une croix en pierre, monolithique, datant de 1885 ;
 une croix métallique.
 Le cimetière dispose d'un jardin du souvenir.
 			Croix du cimetière en pierre.
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Beynost</t>
+          <t>Cimetière_de_Beynost</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,11 +562,48 @@
           <t>Personnalités inhumées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plusieurs personnalités sont inhumées dans le cimetière Saint-Martin[2] en particulier des personnalités liées au monde médical ou à la science.
-Personnalités scientifiques
-Alexandre Lacassagne (1843-1924), médecin, dans le caveau dans lequel son fils Jean Lacassagne (1886-1960), médecin, et son gendre Albert Policard sont également inhumés[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plusieurs personnalités sont inhumées dans le cimetière Saint-Martin en particulier des personnalités liées au monde médical ou à la science.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cimetière_de_Beynost</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_de_Beynost</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Personnalités scientifiques</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alexandre Lacassagne (1843-1924), médecin, dans le caveau dans lequel son fils Jean Lacassagne (1886-1960), médecin, et son gendre Albert Policard sont également inhumés.
 Le caveau voisin est celui de la famille de Joseph Rollet (1824-1894),médecin, beau-père d'Alexandre Lacassagne.
 Jean Beauverie (1874-1938), botaniste et mycologue.
 Henry Gabrielle (1887-1968), médecin militaire et maire de Beynost de 1945 à 1965.
@@ -563,15 +614,85 @@
 			Tombe d'Henry Gabrielle.
 			Tombe d'Antoine Magnin.
 			Tombe de Louis Mansuy.
-Autres personnalités
-Claude Bréghot du Lut (1784-1849), homme de lettres.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cimetière_de_Beynost</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_de_Beynost</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Autres personnalités</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Claude Bréghot du Lut (1784-1849), homme de lettres.
 Étienne Vincent de Marniola (1781-1809), haut fonctionnaire français sous le Premier Empire.
 Christian Krass (1868-1957), artiste ébéniste et meublier.
 			Tombe de Claude Bréghot du Lut.
 			Plaque du caveau dans lequel est enterré Étienne Vincent-Marniola.
 			Tombe de Christian Krass.
-Personnalités locales
-Le chanoine Jean-Baptiste Martin (d) (1875-1936), curé de Beynost de 1913 à 1936, également géologue.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cimetière_de_Beynost</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_de_Beynost</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Personnalités locales</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le chanoine Jean-Baptiste Martin (d) (1875-1936), curé de Beynost de 1913 à 1936, également géologue.
 Les maires André (entre autres) :
 Claude André (d) (1789-1866), maire de Beynost de 1832 à 1843,
 Claude André (d)  (1815-1903), maire de Beynost de 1872 à 1878 puis de 1884 à 1888 (par ailleurs fils du précédent),
